--- a/CPT+_accur_variance.xlsx
+++ b/CPT+_accur_variance.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/Predictors_tests_another_git_clone/Predictors_tests/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafaelktistakis/Repositories/Predictors_tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -84,6 +84,45 @@
   </si>
   <si>
     <t>LZ78</t>
+  </si>
+  <si>
+    <t>The parameters that were changed are:</t>
+  </si>
+  <si>
+    <t>noiseRatio</t>
+  </si>
+  <si>
+    <t>0.0 - 1</t>
+  </si>
+  <si>
+    <t>0.1 increment</t>
+  </si>
+  <si>
+    <t>minPredictionRatio</t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t>1 increment</t>
+  </si>
+  <si>
+    <t>splitMethod</t>
+  </si>
+  <si>
+    <t>0 or 1</t>
+  </si>
+  <si>
+    <t>splitLength</t>
+  </si>
+  <si>
+    <t>0.1 - 0.9; this should be the portion of the last items to keep from a training sequence</t>
+  </si>
+  <si>
+    <t>Combinations of the parameter values were made</t>
+  </si>
+  <si>
+    <t>Levens Pred</t>
   </si>
 </sst>
 </file>
@@ -149,12 +188,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -437,11 +477,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="806436992"/>
-        <c:axId val="806408480"/>
+        <c:axId val="940941088"/>
+        <c:axId val="940934288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="806436992"/>
+        <c:axId val="940941088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +524,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="806408480"/>
+        <c:crossAx val="940934288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -492,7 +532,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="806408480"/>
+        <c:axId val="940934288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -543,7 +583,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="806436992"/>
+        <c:crossAx val="940941088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -759,8 +799,29 @@
             <c:numRef>
               <c:f>Sheet1!$B$39:$B$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -822,8 +883,29 @@
             <c:numRef>
               <c:f>Sheet1!$C$39:$C$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,8 +967,29 @@
             <c:numRef>
               <c:f>Sheet1!$D$39:$D$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -896,7 +999,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$38</c:f>
+              <c:f>Sheet1!$F$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -946,10 +1049,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$39:$E$45</c:f>
+              <c:f>Sheet1!$F$39:$F$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -959,7 +1083,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$38</c:f>
+              <c:f>Sheet1!$G$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1009,10 +1133,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$39:$F$45</c:f>
+              <c:f>Sheet1!$G$39:$G$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1022,7 +1167,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$38</c:f>
+              <c:f>Sheet1!$H$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1072,10 +1217,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$39:$G$45</c:f>
+              <c:f>Sheet1!$H$39:$H$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1085,7 +1251,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$38</c:f>
+              <c:f>Sheet1!$I$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1137,10 +1303,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$39:$H$45</c:f>
+              <c:f>Sheet1!$I$39:$I$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1150,7 +1337,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$38</c:f>
+              <c:f>Sheet1!$J$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1202,10 +1389,111 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$39:$I$45</c:f>
+              <c:f>Sheet1!$J$39:$J$45</c:f>
               <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Levens Pred</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_W</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$39:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1220,11 +1508,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="945186992"/>
-        <c:axId val="945189312"/>
+        <c:axId val="946270816"/>
+        <c:axId val="946273648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="945186992"/>
+        <c:axId val="946270816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1555,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945189312"/>
+        <c:crossAx val="946273648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="945189312"/>
+        <c:axId val="946273648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="945186992"/>
+        <c:crossAx val="946270816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2499,13 +2787,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>805616</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>179596</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>568720</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>50287</xdr:rowOff>
@@ -2529,13 +2817,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>310444</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>180622</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>81844</xdr:rowOff>
@@ -2823,19 +3111,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="90" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2846,7 +3135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2857,11 +3146,12 @@
         <v>0.309</v>
       </c>
       <c r="D2" s="2">
-        <f>B2-C2</f>
+        <f t="shared" ref="D2:D8" si="0">B2-C2</f>
         <v>6.2E-2</v>
       </c>
+      <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2872,11 +3162,12 @@
         <v>0.26700000000000002</v>
       </c>
       <c r="D3" s="2">
-        <f>B3-C3</f>
+        <f t="shared" si="0"/>
         <v>7.3000000000000009E-2</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2887,11 +3178,12 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="D4" s="2">
-        <f>B4-C4</f>
+        <f t="shared" si="0"/>
         <v>0.10099999999999998</v>
       </c>
+      <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2902,11 +3194,12 @@
         <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f>B5-C5</f>
+        <f t="shared" si="0"/>
         <v>0.23200000000000001</v>
       </c>
+      <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2917,11 +3210,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="D6" s="2">
-        <f>B6-C6</f>
+        <f t="shared" si="0"/>
         <v>0.79600000000000004</v>
       </c>
+      <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2932,11 +3226,12 @@
         <v>0.316</v>
       </c>
       <c r="D7" s="2">
-        <f>B7-C7</f>
+        <f t="shared" si="0"/>
         <v>0.10799999999999998</v>
       </c>
+      <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2947,16 +3242,68 @@
         <v>0.18</v>
       </c>
       <c r="D8" s="2">
-        <f>B8-C8</f>
+        <f t="shared" si="0"/>
         <v>0.16999999999999998</v>
       </c>
+      <c r="E8" s="2"/>
     </row>
-    <row r="20" spans="1:1" ht="64" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -2970,111 +3317,243 @@
         <v>14</v>
       </c>
       <c r="E38" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>15</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>16</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>17</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="B39" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.33</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0.33</v>
+      </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="B40" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0.04</v>
+      </c>
+      <c r="I40" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0.05</v>
+      </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="B41" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.31</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.38</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0.43</v>
+      </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>5</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="B42" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.22</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0.11</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0.32</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0.18</v>
+      </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="B43" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.16</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0.81</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0.65</v>
+      </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="B44" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0.2</v>
+      </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="B45" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0.23</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0.25</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CPT+_accur_variance.xlsx
+++ b/CPT+_accur_variance.xlsx
@@ -1488,8 +1488,14 @@
                 <c:pt idx="2">
                   <c:v>0.62</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.22</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.36</c:v>
@@ -3113,8 +3119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3444,7 +3450,9 @@
       <c r="D42" s="3">
         <v>0.22</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3">
+        <v>0.22</v>
+      </c>
       <c r="F42" s="3">
         <v>0.28999999999999998</v>
       </c>
@@ -3506,7 +3514,9 @@
       <c r="D44" s="3">
         <v>0.37</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3">
+        <v>0.2</v>
+      </c>
       <c r="F44" s="3">
         <v>0.34</v>
       </c>

--- a/CPT+_accur_variance.xlsx
+++ b/CPT+_accur_variance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Dataset</t>
   </si>
@@ -124,6 +124,12 @@
   <si>
     <t>Levens Pred</t>
   </si>
+  <si>
+    <t>Worst Place</t>
+  </si>
+  <si>
+    <t>CPT+ rank diff. among predictors accuracy</t>
+  </si>
 </sst>
 </file>
 
@@ -171,7 +177,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -187,16 +193,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -204,6 +226,13 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -211,6 +240,13 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,11 +513,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="100"/>
-        <c:axId val="940941088"/>
-        <c:axId val="940934288"/>
+        <c:axId val="-303946864"/>
+        <c:axId val="-396466976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="940941088"/>
+        <c:axId val="-303946864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +560,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="940934288"/>
+        <c:crossAx val="-396466976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -532,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="940934288"/>
+        <c:axId val="-396466976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +619,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="940941088"/>
+        <c:crossAx val="-303946864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.1"/>
@@ -1514,11 +1550,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="946270816"/>
-        <c:axId val="946273648"/>
+        <c:axId val="-396427664"/>
+        <c:axId val="-396425184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="946270816"/>
+        <c:axId val="-396427664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1561,7 +1597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946273648"/>
+        <c:crossAx val="-396425184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1569,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="946273648"/>
+        <c:axId val="-396425184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1656,448 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="946270816"/>
+        <c:crossAx val="-396427664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>CPT+ accuracy</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> rank</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_W</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$69:$C$75</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$68</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPT+ rank diff. among predictors accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$69:$A$75</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>BMS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SIGN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MSNBC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>BIBLE_W</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BIBLE_C</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>KOSARAK</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>FIFA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$69:$D$75</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="100"/>
+        <c:axId val="-270812896"/>
+        <c:axId val="-270811120"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-270812896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-270811120"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-270811120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-270812896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1781,6 +2258,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
@@ -2757,6 +3274,511 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2846,6 +3868,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>595660</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152914</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3117,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="107" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="110" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3565,6 +4619,122 @@
         <v>0.25</v>
       </c>
     </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>2</v>
+      </c>
+      <c r="B69" s="4">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5">
+        <v>1</v>
+      </c>
+      <c r="D69" s="4">
+        <f>B69-C69</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>3</v>
+      </c>
+      <c r="B70" s="4">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>1</v>
+      </c>
+      <c r="D70" s="4">
+        <f>-(C70-B70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4">
+        <v>5</v>
+      </c>
+      <c r="C71" s="5">
+        <v>2</v>
+      </c>
+      <c r="D71" s="4">
+        <f>-(C71-B71)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="4">
+        <v>9</v>
+      </c>
+      <c r="C72" s="5">
+        <v>3</v>
+      </c>
+      <c r="D72" s="4">
+        <f>-(C72-B72)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="4">
+        <v>9</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3</v>
+      </c>
+      <c r="D73" s="4">
+        <f>-(C73-B73)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="4">
+        <v>2</v>
+      </c>
+      <c r="C74" s="5">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4">
+        <f>-(C74-B74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="4">
+        <v>8</v>
+      </c>
+      <c r="C75" s="5">
+        <v>1</v>
+      </c>
+      <c r="D75" s="4">
+        <f>-(C75-B75)</f>
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
